--- a/data/trans_dic/P36B08_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Provincia-trans_dic.xlsx
@@ -534,7 +534,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumen 3 veces o más al dia verduras, ensaladas y hortalizas</t>
+          <t>Población que consumen 3 veces o más al día verduras, ensaladas y hortalizas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,23; 67,17</t>
+          <t>55,11; 66,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74,48; 85,34</t>
+          <t>74,71; 84,93</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>88,68; 95,89</t>
+          <t>89,11; 95,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>65,47; 76,51</t>
+          <t>65,29; 76,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>80,99; 89,51</t>
+          <t>80,89; 89,17</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>92,41; 97,92</t>
+          <t>92,0; 98,05</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61,78; 69,94</t>
+          <t>61,42; 70,02</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>79,39; 86,05</t>
+          <t>79,7; 86,0</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,14; 96,65</t>
+          <t>92,53; 96,58</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,72; 50,21</t>
+          <t>40,87; 49,92</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,4; 60,64</t>
+          <t>51,32; 60,72</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,15; 72,62</t>
+          <t>63,97; 72,92</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>89,57; 95,37</t>
+          <t>89,43; 95,3</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,63; 62,11</t>
+          <t>53,63; 62,4</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>63,28; 71,44</t>
+          <t>62,94; 71,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>74,97; 82,29</t>
+          <t>74,45; 81,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>90,83; 94,84</t>
+          <t>91,3; 94,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>48,54; 55,04</t>
+          <t>48,35; 54,79</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>58,54; 64,88</t>
+          <t>58,63; 65,35</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>71,02; 76,5</t>
+          <t>70,64; 76,11</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>91,04; 94,45</t>
+          <t>91,05; 94,52</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,38; 77,04</t>
+          <t>67,67; 77,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>75,12; 83,71</t>
+          <t>75,44; 84,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68,14; 77,43</t>
+          <t>68,34; 78,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>87,62; 94,2</t>
+          <t>87,08; 94,21</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>71,87; 81,38</t>
+          <t>72,48; 81,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,75; 89,63</t>
+          <t>81,63; 89,43</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,69; 82,81</t>
+          <t>73,56; 82,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>91,69; 96,25</t>
+          <t>91,56; 96,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>71,45; 78,25</t>
+          <t>71,49; 78,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>79,93; 85,71</t>
+          <t>79,97; 85,61</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>72,04; 78,47</t>
+          <t>72,03; 78,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>90,9; 94,56</t>
+          <t>91,02; 94,86</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>62,99; 72,96</t>
+          <t>63,04; 73,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71,74; 78,57</t>
+          <t>71,62; 78,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,82; 84,2</t>
+          <t>75,42; 84,08</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96,09; 99,38</t>
+          <t>95,24; 99,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>73,5; 81,64</t>
+          <t>73,47; 81,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,55; 85,43</t>
+          <t>79,55; 85,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,11; 90,19</t>
+          <t>82,61; 90,13</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>96,18; 99,03</t>
+          <t>96,32; 99,12</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>69,74; 76,29</t>
+          <t>69,93; 76,33</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>76,7; 81,26</t>
+          <t>76,72; 81,27</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>80,86; 86,18</t>
+          <t>80,79; 86,23</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,63; 98,91</t>
+          <t>96,75; 98,94</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43,2; 57,54</t>
+          <t>44,27; 58,34</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>56,93; 70,46</t>
+          <t>57,18; 70,74</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,16; 93,48</t>
+          <t>85,26; 93,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>98,33; 100,0</t>
+          <t>98,3; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,96; 69,59</t>
+          <t>55,89; 69,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,56; 78,41</t>
+          <t>66,41; 79,32</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>84,96; 93,32</t>
+          <t>85,16; 92,88</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>97,81; 99,8</t>
+          <t>97,86; 99,81</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>51,85; 61,4</t>
+          <t>51,78; 61,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>63,05; 72,73</t>
+          <t>64,03; 73,33</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>86,69; 92,53</t>
+          <t>86,68; 92,38</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>98,49; 99,87</t>
+          <t>98,7; 99,78</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>58,41; 70,0</t>
+          <t>58,47; 69,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>66,24; 78,02</t>
+          <t>66,44; 77,57</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>48,28; 60,22</t>
+          <t>47,49; 59,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>93,64; 98,33</t>
+          <t>93,94; 98,48</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>71,03; 81,34</t>
+          <t>71,1; 81,31</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>78,36; 87,64</t>
+          <t>78,03; 87,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>54,17; 66,73</t>
+          <t>54,05; 65,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>95,3; 99,06</t>
+          <t>95,14; 98,98</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,33; 74,1</t>
+          <t>66,06; 74,27</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,0; 81,03</t>
+          <t>74,15; 81,12</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>52,71; 61,64</t>
+          <t>52,28; 61,23</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>95,75; 98,4</t>
+          <t>95,69; 98,49</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>72,11; 78,93</t>
+          <t>72,06; 78,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>70,13; 77,55</t>
+          <t>70,47; 77,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>59,53; 67,47</t>
+          <t>59,22; 67,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>84,24; 90,64</t>
+          <t>84,33; 90,75</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>71,44; 78,16</t>
+          <t>71,5; 78,26</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>79,01; 85,26</t>
+          <t>79,07; 85,05</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>68,15; 75,42</t>
+          <t>68,4; 75,56</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>90,27; 95,57</t>
+          <t>90,15; 95,64</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>72,81; 77,6</t>
+          <t>72,72; 77,61</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>75,79; 80,53</t>
+          <t>75,96; 80,55</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>65,06; 70,47</t>
+          <t>65,24; 70,61</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>88,48; 92,71</t>
+          <t>88,7; 93,01</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>58,36; 65,39</t>
+          <t>58,09; 65,0</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>69,1; 75,71</t>
+          <t>69,13; 75,58</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>73,33; 79,29</t>
+          <t>73,3; 79,37</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>96,06; 98,7</t>
+          <t>96,16; 98,79</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>67,71; 74,53</t>
+          <t>67,7; 74,24</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>77,2; 83,03</t>
+          <t>76,85; 82,82</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>72,87; 79,04</t>
+          <t>72,81; 78,94</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>96,8; 98,81</t>
+          <t>96,78; 98,84</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>64,19; 69,07</t>
+          <t>63,73; 68,79</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>74,33; 78,6</t>
+          <t>74,39; 78,6</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>73,8; 78,35</t>
+          <t>74,17; 78,21</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>96,95; 98,54</t>
+          <t>96,9; 98,51</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>61,68; 64,9</t>
+          <t>61,51; 64,82</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>69,56; 72,74</t>
+          <t>69,49; 72,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>70,84; 73,99</t>
+          <t>70,66; 73,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>93,34; 95,23</t>
+          <t>93,27; 95,11</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>69,41; 72,57</t>
+          <t>69,61; 72,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>78,08; 80,86</t>
+          <t>78,18; 80,99</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>75,86; 78,75</t>
+          <t>75,95; 78,72</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>95,05; 96,44</t>
+          <t>95,1; 96,47</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>65,9; 68,27</t>
+          <t>66,06; 68,31</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>74,4; 76,46</t>
+          <t>74,41; 76,45</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>73,76; 75,88</t>
+          <t>73,78; 75,89</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>94,45; 95,62</t>
+          <t>94,51; 95,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B08_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,11; 66,74</t>
+          <t>55,11; 67,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74,71; 84,93</t>
+          <t>74,46; 84,57</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>65,29; 76,65</t>
+          <t>64,74; 76,59</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>80,89; 89,17</t>
+          <t>81,11; 89,04</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61,42; 70,02</t>
+          <t>62,13; 70,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>79,7; 86,0</t>
+          <t>79,61; 85,92</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,87; 49,92</t>
+          <t>41,03; 50,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,32; 60,72</t>
+          <t>51,32; 60,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>63,97; 72,92</t>
+          <t>64,09; 72,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,63; 62,4</t>
+          <t>52,78; 62,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,94; 71,35</t>
+          <t>62,71; 71,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>74,45; 81,78</t>
+          <t>74,68; 81,59</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>48,35; 54,79</t>
+          <t>48,63; 54,71</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>58,63; 65,35</t>
+          <t>58,63; 65,04</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>70,64; 76,11</t>
+          <t>70,92; 76,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,67; 77,32</t>
+          <t>66,94; 77,51</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>75,44; 84,25</t>
+          <t>74,93; 83,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68,34; 78,38</t>
+          <t>68,03; 77,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>72,48; 81,44</t>
+          <t>72,84; 81,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,63; 89,43</t>
+          <t>81,57; 89,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,56; 82,37</t>
+          <t>73,15; 82,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>71,49; 78,35</t>
+          <t>71,21; 78,37</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>79,97; 85,61</t>
+          <t>79,72; 85,88</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>72,03; 78,79</t>
+          <t>72,09; 78,75</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63,04; 73,42</t>
+          <t>63,26; 73,08</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71,62; 78,48</t>
+          <t>71,73; 78,69</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,42; 84,08</t>
+          <t>75,8; 84,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>73,47; 81,18</t>
+          <t>73,37; 81,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,55; 85,67</t>
+          <t>79,63; 85,9</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,61; 90,13</t>
+          <t>82,74; 89,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>69,93; 76,33</t>
+          <t>69,84; 76,44</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>76,72; 81,27</t>
+          <t>76,74; 81,34</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>80,79; 86,23</t>
+          <t>80,6; 86,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>44,27; 58,34</t>
+          <t>43,26; 57,98</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>57,18; 70,74</t>
+          <t>56,62; 70,53</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>85,26; 93,97</t>
+          <t>85,43; 93,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>55,89; 69,23</t>
+          <t>55,47; 69,63</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,41; 79,32</t>
+          <t>66,62; 79,45</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>85,16; 92,88</t>
+          <t>84,97; 92,89</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>51,78; 61,36</t>
+          <t>52,16; 62,02</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>64,03; 73,33</t>
+          <t>64,02; 72,8</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>86,68; 92,38</t>
+          <t>86,74; 92,58</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>58,47; 69,82</t>
+          <t>58,06; 69,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>66,44; 77,57</t>
+          <t>66,62; 77,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,49; 59,95</t>
+          <t>47,74; 59,84</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>71,1; 81,31</t>
+          <t>70,98; 81,02</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>78,03; 87,36</t>
+          <t>78,33; 87,32</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>54,05; 65,84</t>
+          <t>53,43; 65,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,06; 74,27</t>
+          <t>66,58; 74,38</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,15; 81,12</t>
+          <t>74,43; 81,56</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>52,28; 61,23</t>
+          <t>52,82; 61,49</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>72,06; 78,98</t>
+          <t>71,77; 79,22</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>70,47; 77,9</t>
+          <t>70,38; 77,7</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>59,22; 67,51</t>
+          <t>59,08; 67,17</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>71,5; 78,26</t>
+          <t>71,51; 78,4</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>79,07; 85,05</t>
+          <t>79,48; 85,24</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>68,4; 75,56</t>
+          <t>68,14; 75,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>72,72; 77,61</t>
+          <t>72,85; 77,92</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>75,96; 80,55</t>
+          <t>76,0; 80,65</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>65,24; 70,61</t>
+          <t>65,14; 70,53</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>58,09; 65,0</t>
+          <t>58,49; 65,47</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>69,13; 75,58</t>
+          <t>69,19; 75,69</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>73,3; 79,37</t>
+          <t>73,22; 79,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>67,7; 74,24</t>
+          <t>67,7; 74,39</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>76,85; 82,82</t>
+          <t>77,16; 83,06</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>72,81; 78,94</t>
+          <t>72,94; 78,98</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>63,73; 68,79</t>
+          <t>64,01; 68,72</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>74,39; 78,6</t>
+          <t>74,34; 78,54</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>74,17; 78,21</t>
+          <t>74,14; 78,33</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>61,51; 64,82</t>
+          <t>61,57; 64,86</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>69,49; 72,75</t>
+          <t>69,48; 72,83</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>70,66; 73,8</t>
+          <t>70,71; 73,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>69,61; 72,58</t>
+          <t>69,46; 72,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>78,18; 80,99</t>
+          <t>78,03; 80,92</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>75,95; 78,72</t>
+          <t>75,9; 78,92</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>66,06; 68,31</t>
+          <t>66,1; 68,36</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>74,41; 76,45</t>
+          <t>74,23; 76,46</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>73,78; 75,89</t>
+          <t>73,91; 75,89</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P36B08_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,11; 67,08</t>
+          <t>55,23; 67,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74,46; 84,57</t>
+          <t>74,48; 85,34</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>89,11; 95,91</t>
+          <t>88,68; 95,89</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>64,74; 76,59</t>
+          <t>65,47; 76,51</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>81,11; 89,04</t>
+          <t>80,99; 89,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>92,0; 98,05</t>
+          <t>92,41; 97,92</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>62,13; 70,27</t>
+          <t>61,78; 69,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>79,61; 85,92</t>
+          <t>79,39; 86,05</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,53; 96,58</t>
+          <t>92,14; 96,65</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>41,03; 50,33</t>
+          <t>40,72; 50,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,32; 60,87</t>
+          <t>51,4; 60,64</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,09; 72,77</t>
+          <t>64,15; 72,62</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>89,43; 95,3</t>
+          <t>89,57; 95,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>52,78; 62,25</t>
+          <t>53,63; 62,11</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>62,71; 71,11</t>
+          <t>63,28; 71,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>74,68; 81,59</t>
+          <t>74,97; 82,29</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>91,3; 94,87</t>
+          <t>90,83; 94,84</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>48,63; 54,71</t>
+          <t>48,54; 55,04</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>58,63; 65,04</t>
+          <t>58,54; 64,88</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>70,92; 76,26</t>
+          <t>71,02; 76,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>91,05; 94,52</t>
+          <t>91,04; 94,45</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>66,94; 77,51</t>
+          <t>67,38; 77,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>74,93; 83,83</t>
+          <t>75,12; 83,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68,03; 77,9</t>
+          <t>68,14; 77,43</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>87,08; 94,21</t>
+          <t>87,62; 94,2</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>72,84; 81,64</t>
+          <t>71,87; 81,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,57; 89,3</t>
+          <t>81,75; 89,63</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,15; 82,21</t>
+          <t>73,69; 82,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>91,56; 96,17</t>
+          <t>91,69; 96,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>71,21; 78,37</t>
+          <t>71,45; 78,25</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>79,72; 85,88</t>
+          <t>79,93; 85,71</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>72,09; 78,75</t>
+          <t>72,04; 78,47</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>91,02; 94,86</t>
+          <t>90,9; 94,56</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63,26; 73,08</t>
+          <t>62,99; 72,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71,73; 78,69</t>
+          <t>71,74; 78,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,8; 84,3</t>
+          <t>75,82; 84,2</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,24; 99,41</t>
+          <t>96,09; 99,38</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>73,37; 81,26</t>
+          <t>73,5; 81,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,63; 85,9</t>
+          <t>79,55; 85,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>82,74; 89,89</t>
+          <t>83,11; 90,19</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>96,32; 99,12</t>
+          <t>96,18; 99,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>69,84; 76,44</t>
+          <t>69,74; 76,29</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>76,74; 81,34</t>
+          <t>76,7; 81,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>80,6; 86,14</t>
+          <t>80,86; 86,18</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,75; 98,94</t>
+          <t>96,63; 98,91</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43,26; 57,98</t>
+          <t>43,2; 57,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>56,62; 70,53</t>
+          <t>56,93; 70,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>85,43; 93,59</t>
+          <t>84,16; 93,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>98,3; 100,0</t>
+          <t>98,33; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>55,47; 69,63</t>
+          <t>54,96; 69,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,62; 79,45</t>
+          <t>66,56; 78,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>84,97; 92,89</t>
+          <t>84,96; 93,32</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>97,86; 99,81</t>
+          <t>97,81; 99,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>52,16; 62,02</t>
+          <t>51,85; 61,4</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>64,02; 72,8</t>
+          <t>63,05; 72,73</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>86,74; 92,58</t>
+          <t>86,69; 92,53</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>98,7; 99,78</t>
+          <t>98,49; 99,87</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>58,06; 69,97</t>
+          <t>58,41; 70,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>66,62; 77,59</t>
+          <t>66,24; 78,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>47,74; 59,84</t>
+          <t>48,28; 60,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>93,94; 98,48</t>
+          <t>93,64; 98,33</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>70,98; 81,02</t>
+          <t>71,03; 81,34</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>78,33; 87,32</t>
+          <t>78,36; 87,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>53,43; 65,63</t>
+          <t>54,17; 66,73</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>95,14; 98,98</t>
+          <t>95,3; 99,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,58; 74,38</t>
+          <t>66,33; 74,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,43; 81,56</t>
+          <t>74,0; 81,03</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>52,82; 61,49</t>
+          <t>52,71; 61,64</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>95,69; 98,49</t>
+          <t>95,75; 98,4</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>71,77; 79,22</t>
+          <t>72,11; 78,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>70,38; 77,7</t>
+          <t>70,13; 77,55</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>59,08; 67,17</t>
+          <t>59,53; 67,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>84,33; 90,75</t>
+          <t>84,24; 90,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>71,51; 78,4</t>
+          <t>71,44; 78,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>79,48; 85,24</t>
+          <t>79,01; 85,26</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>68,14; 75,21</t>
+          <t>68,15; 75,42</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>90,15; 95,64</t>
+          <t>90,27; 95,57</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>72,85; 77,92</t>
+          <t>72,81; 77,6</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>76,0; 80,65</t>
+          <t>75,79; 80,53</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>65,14; 70,53</t>
+          <t>65,06; 70,47</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>88,7; 93,01</t>
+          <t>88,48; 92,71</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>58,49; 65,47</t>
+          <t>58,36; 65,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>69,19; 75,69</t>
+          <t>69,1; 75,71</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>73,22; 79,48</t>
+          <t>73,33; 79,29</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>96,16; 98,79</t>
+          <t>96,06; 98,7</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>67,7; 74,39</t>
+          <t>67,71; 74,53</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>77,16; 83,06</t>
+          <t>77,2; 83,03</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>72,94; 78,98</t>
+          <t>72,87; 79,04</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>96,78; 98,84</t>
+          <t>96,8; 98,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>64,01; 68,72</t>
+          <t>64,19; 69,07</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>74,34; 78,54</t>
+          <t>74,33; 78,6</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>74,14; 78,33</t>
+          <t>73,8; 78,35</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>96,9; 98,51</t>
+          <t>96,95; 98,54</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>61,57; 64,86</t>
+          <t>61,68; 64,9</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>69,48; 72,83</t>
+          <t>69,56; 72,74</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>70,71; 73,97</t>
+          <t>70,84; 73,99</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>93,27; 95,11</t>
+          <t>93,34; 95,23</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>69,46; 72,57</t>
+          <t>69,41; 72,57</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>78,03; 80,92</t>
+          <t>78,08; 80,86</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>75,9; 78,92</t>
+          <t>75,86; 78,75</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>95,1; 96,47</t>
+          <t>95,05; 96,44</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>66,1; 68,36</t>
+          <t>65,9; 68,27</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>74,23; 76,46</t>
+          <t>74,4; 76,46</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>73,91; 75,89</t>
+          <t>73,76; 75,88</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>94,51; 95,65</t>
+          <t>94,45; 95,62</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B08_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,23%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>93,56%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>78,93%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>96,15%</t>
+          <t>95,55%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>75,02%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>94,88%</t>
+          <t>94,52%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>65,34; 76,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>88,68; 95,89</t>
+          <t>87,66; 96,04</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>73,53; 84,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>92,41; 97,92</t>
+          <t>89,16; 97,82</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>71,02; 78,43</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,14; 96,65</t>
+          <t>90,73; 96,45</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>93,22%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>92,96%</t>
+          <t>93,02%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>89,57; 95,37</t>
+          <t>89,54; 95,4</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>90,83; 94,84</t>
+          <t>90,82; 94,83</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>91,04; 94,45</t>
+          <t>91,15; 94,55</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>91,37%</t>
+          <t>91,31%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>94,45%</t>
+          <t>94,51%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,02%</t>
+          <t>92,99%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>87,62; 94,2</t>
+          <t>87,37; 94,09</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>91,69; 96,25</t>
+          <t>91,83; 96,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>90,9; 94,56</t>
+          <t>90,85; 94,55</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>75,27%</t>
+          <t>78,46%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>98,19%</t>
+          <t>98,17%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>82,75%</t>
+          <t>85,56%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>98,42%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>79,03%</t>
+          <t>82,08%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>98,14%</t>
+          <t>98,32%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71,74; 78,57</t>
+          <t>73,0; 82,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96,09; 99,38</t>
+          <t>96,02; 99,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>79,55; 85,43</t>
+          <t>81,61; 88,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>96,18; 99,03</t>
+          <t>96,93; 99,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>76,7; 81,26</t>
+          <t>79,11; 84,82</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,63; 98,91</t>
+          <t>96,77; 99,06</t>
         </is>
       </c>
     </row>
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>99,24%</t>
+          <t>99,26%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>99,46%</t>
+          <t>99,47%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>98,33; 100,0</t>
+          <t>98,35; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>97,81; 99,8</t>
+          <t>97,84; 99,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>98,49; 99,87</t>
+          <t>98,52; 99,87</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>96,83%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>97,82%</t>
+          <t>97,84%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>97,32%</t>
+          <t>97,33%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>93,64; 98,33</t>
+          <t>93,58; 98,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>95,3; 99,06</t>
+          <t>95,35; 99,06</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>95,75; 98,4</t>
+          <t>95,76; 98,4</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>87,83%</t>
+          <t>87,67%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>92,78%</t>
+          <t>93,66%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>90,62%</t>
+          <t>91,13%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>84,24; 90,64</t>
+          <t>83,71; 90,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>90,27; 95,57</t>
+          <t>90,64; 96,93</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>88,48; 92,71</t>
+          <t>88,72; 94,42</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>97,74%</t>
+          <t>98,24%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>97,98%</t>
+          <t>98,01%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>97,86%</t>
+          <t>98,14%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>96,06; 98,7</t>
+          <t>96,89; 99,28</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>96,8; 98,81</t>
+          <t>96,86; 98,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>96,95; 98,54</t>
+          <t>97,23; 98,93</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>94,28%</t>
+          <t>94,43%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>95,79%</t>
+          <t>95,91%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>95,08%</t>
+          <t>95,19%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>93,34; 95,23</t>
+          <t>93,36; 95,67</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>95,05; 96,44</t>
+          <t>95,08; 96,67</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>94,45; 95,62</t>
+          <t>94,49; 95,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B08_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B08_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>55,23; 67,17</t>
+          <t>54,55; 67,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>65,34; 76,08</t>
+          <t>65,89; 76,23</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>74,48; 85,34</t>
+          <t>74,88; 85,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>87,66; 96,04</t>
+          <t>88,05; 96,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>65,47; 76,51</t>
+          <t>65,13; 76,53</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>73,53; 84,02</t>
+          <t>73,68; 83,86</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>80,99; 89,51</t>
+          <t>80,75; 89,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>89,16; 97,82</t>
+          <t>88,94; 97,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>61,78; 69,94</t>
+          <t>62,03; 70,1</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>71,02; 78,43</t>
+          <t>70,81; 78,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>79,39; 86,05</t>
+          <t>79,56; 86,22</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>90,73; 96,45</t>
+          <t>91,4; 96,45</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>40,72; 50,21</t>
+          <t>40,77; 50,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>51,4; 60,64</t>
+          <t>51,43; 60,3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64,15; 72,62</t>
+          <t>63,89; 72,84</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>89,54; 95,4</t>
+          <t>89,64; 95,23</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>53,63; 62,11</t>
+          <t>52,65; 61,75</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>63,28; 71,44</t>
+          <t>63,27; 71,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>74,97; 82,29</t>
+          <t>74,84; 82,02</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>90,82; 94,83</t>
+          <t>90,95; 94,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>48,54; 55,04</t>
+          <t>48,32; 55,13</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>58,54; 64,88</t>
+          <t>58,73; 64,86</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>71,02; 76,5</t>
+          <t>70,56; 76,56</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>91,15; 94,55</t>
+          <t>91,04; 94,49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>67,38; 77,04</t>
+          <t>67,6; 77,76</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>75,12; 83,71</t>
+          <t>75,71; 84,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68,14; 77,43</t>
+          <t>68,16; 77,86</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>87,37; 94,09</t>
+          <t>86,97; 94,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>71,87; 81,38</t>
+          <t>72,63; 81,96</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>81,75; 89,63</t>
+          <t>82,01; 89,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>73,69; 82,81</t>
+          <t>73,1; 82,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>91,83; 96,28</t>
+          <t>91,89; 96,31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>71,45; 78,25</t>
+          <t>71,54; 78,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>79,93; 85,71</t>
+          <t>79,93; 85,68</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>72,04; 78,47</t>
+          <t>72,12; 78,43</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>90,85; 94,55</t>
+          <t>90,77; 94,71</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>62,99; 72,96</t>
+          <t>63,68; 73,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>73,0; 82,37</t>
+          <t>73,52; 82,71</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>75,82; 84,2</t>
+          <t>75,82; 84,47</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>96,02; 99,36</t>
+          <t>95,52; 99,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>73,5; 81,64</t>
+          <t>73,07; 81,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>81,61; 88,99</t>
+          <t>81,73; 88,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>83,11; 90,19</t>
+          <t>82,89; 90,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>96,93; 99,3</t>
+          <t>96,91; 99,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>69,74; 76,29</t>
+          <t>69,73; 76,23</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>79,11; 84,82</t>
+          <t>79,35; 85,16</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>80,86; 86,18</t>
+          <t>80,61; 86,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>96,77; 99,06</t>
+          <t>97,15; 99,09</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>43,2; 57,54</t>
+          <t>44,05; 57,78</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>56,93; 70,46</t>
+          <t>57,18; 70,64</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>84,16; 93,48</t>
+          <t>85,26; 93,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>98,35; 100,0</t>
+          <t>98,55; 100,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>54,96; 69,59</t>
+          <t>56,06; 69,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>66,56; 78,41</t>
+          <t>66,72; 79,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>84,96; 93,32</t>
+          <t>84,96; 93,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>97,84; 99,8</t>
+          <t>97,95; 99,8</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>51,85; 61,4</t>
+          <t>52,18; 61,42</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>63,05; 72,73</t>
+          <t>64,24; 73,12</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>86,69; 92,53</t>
+          <t>86,92; 92,73</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>98,52; 99,87</t>
+          <t>98,68; 99,87</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>58,41; 70,0</t>
+          <t>58,62; 70,1</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>66,24; 78,02</t>
+          <t>66,25; 77,23</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>48,28; 60,22</t>
+          <t>47,6; 59,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>93,58; 98,32</t>
+          <t>93,85; 98,43</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>71,03; 81,34</t>
+          <t>71,14; 81,17</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>78,36; 87,64</t>
+          <t>78,97; 87,98</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>54,17; 66,73</t>
+          <t>54,16; 65,84</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>95,35; 99,06</t>
+          <t>95,47; 99,11</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>66,33; 74,1</t>
+          <t>66,55; 74,32</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>74,0; 81,03</t>
+          <t>74,08; 81,49</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>52,71; 61,64</t>
+          <t>52,89; 61,52</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>95,76; 98,4</t>
+          <t>95,66; 98,36</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>72,11; 78,93</t>
+          <t>71,81; 78,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>70,13; 77,55</t>
+          <t>70,42; 77,32</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>59,53; 67,47</t>
+          <t>59,43; 67,5</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>83,71; 90,65</t>
+          <t>83,67; 90,64</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>71,44; 78,16</t>
+          <t>71,4; 78,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>79,01; 85,26</t>
+          <t>79,03; 85,14</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>68,15; 75,42</t>
+          <t>68,04; 75,67</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>90,64; 96,93</t>
+          <t>90,75; 97,38</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>72,81; 77,6</t>
+          <t>72,93; 77,68</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>75,79; 80,53</t>
+          <t>75,97; 80,53</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>65,06; 70,47</t>
+          <t>65,21; 70,53</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>88,72; 94,42</t>
+          <t>88,76; 94,2</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>58,36; 65,39</t>
+          <t>58,47; 65,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>69,1; 75,71</t>
+          <t>69,32; 75,83</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>73,33; 79,29</t>
+          <t>73,29; 79,22</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>96,89; 99,28</t>
+          <t>96,89; 99,48</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>67,71; 74,53</t>
+          <t>67,46; 74,38</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>77,2; 83,03</t>
+          <t>77,32; 82,99</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>72,87; 79,04</t>
+          <t>73,1; 79,23</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>96,86; 98,83</t>
+          <t>96,86; 98,79</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>64,19; 69,07</t>
+          <t>64,26; 69,21</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>74,33; 78,6</t>
+          <t>74,45; 78,65</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>73,8; 78,35</t>
+          <t>74,18; 78,38</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>97,23; 98,93</t>
+          <t>97,22; 98,92</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>61,68; 64,9</t>
+          <t>61,67; 64,96</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>69,56; 72,74</t>
+          <t>69,43; 72,81</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>70,84; 73,99</t>
+          <t>70,68; 73,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>93,36; 95,67</t>
+          <t>93,28; 95,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>69,41; 72,57</t>
+          <t>69,51; 72,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>78,08; 80,86</t>
+          <t>78,13; 80,87</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>75,86; 78,75</t>
+          <t>75,83; 78,9</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>95,08; 96,67</t>
+          <t>95,11; 96,66</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>65,9; 68,27</t>
+          <t>66,12; 68,36</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>74,4; 76,46</t>
+          <t>74,39; 76,45</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>73,76; 75,88</t>
+          <t>73,86; 76,06</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>94,49; 95,91</t>
+          <t>94,5; 95,88</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consumen 3 veces o más al día verduras, ensaladas y hortalizas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>522</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>833</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>167031</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>209954</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>235668</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>291388</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>185947</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>225105</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>245125</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>276740</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>352978</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>435059</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>480793</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>568127</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>148466; 182510</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>194200; 224666</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>219260; 248937</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>274216; 299359</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>169878; 199614</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>210142; 239181</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>231518; 256638</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>257610; 283191</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>330652; 373644</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>410663; 454042</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>461081; 499673</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>549385; 579752</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>668</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>581</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>694</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1022</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>224597</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>283820</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>340493</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>481243</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>290437</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>353143</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>409182</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>479967</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>515034</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>636963</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>749675</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>961209</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>201030; 248641</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>260015; 304826</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>317934; 362441</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>464709; 493686</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>265331; 311206</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>331406; 375804</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>389678; 427060</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>468349; 488614</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>481768; 549644</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>604499; 667595</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>718507; 779538</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>940789; 976467</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>503</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>838</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>231536</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>258496</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>231713</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>288586</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>258748</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>292980</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>262478</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>328045</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>490284</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>551476</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>494190</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>616631</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>215537; 247927</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>244558; 272073</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>216516; 247332</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>274864; 297484</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>243612; 274912</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>279676; 305134</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>245848; 276675</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>318930; 334273</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>468069; 512921</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>530777; 568940</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>471613; 512900</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>601968; 628092</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>588</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>544</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>590</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>595</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>874</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>246068</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>293408</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>296731</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>306122</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>288551</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>332770</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>335773</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>468218</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>534619</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>626178</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>632504</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>774340</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>228414; 265362</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>274942; 309313</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>280508; 312500</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>297858; 310036</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>271413; 303393</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>317904; 345180</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>320224; 348137</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>461018; 472726</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>509139; 556581</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>605422; 649718</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>609662; 651285</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>765061; 780375</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>487</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>765</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>103523</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>136185</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>190309</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>178227</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>130004</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>195681</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>206420</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>233527</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>296902</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>385990</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>384647</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>89558; 117477</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>121570; 150188</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>180093; 198049</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>176147; 178742</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>116416; 144150</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>146510; 174106</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>185705; 203322</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>203706; 207555</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>214432; 252433</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>277635; 316014</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>373593; 398578</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>381593; 386194</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>452</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>812</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>174732</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>198498</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>141235</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>261124</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>212265</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>231718</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>163142</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>251492</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>386998</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>430216</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>304378</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>512616</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>158746; 189844</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>181500; 211607</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>124775; 155984</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>253043; 265415</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>197875; 225764</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>219608; 244667</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>147340; 179088</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>245400; 254774</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>365308; 407978</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>408996; 449901</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>282513; 328616</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>503848; 518031</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>450</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>451</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>531</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>519</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>457</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>912</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>970</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>826</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1424</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>465119</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>487214</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>413842</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>545559</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>478864</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>567386</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>492273</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>795402</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>943982</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1054600</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>906115</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1340961</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>441635; 484786</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>463113; 508482</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>387109; 439694</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>520651; 564040</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>455663; 500745</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>544657; 586718</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>465304; 517519</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>770694; 827030</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>913965; 973535</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1023092; 1084510</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>870720; 941689</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1306163; 1386219</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>458</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>514</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>569</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>746</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>529</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>1042</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1120</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1136</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1788</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>458524</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>565716</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>591618</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>911649</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>556754</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>659219</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>627141</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>701933</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1015278</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1224935</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1218760</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1613582</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>434884; 486335</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>539355; 590003</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>567603; 613466</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>899117; 923158</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>527864; 581994</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>636131; 682730</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>601847; 652342</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>693678; 707515</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>980790; 1056335</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1191732; 1258996</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1185155; 1252247</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1598528; 1626455</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2030</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2262</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2334</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>3199</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>2332</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>2614</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>2557</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>5157</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>4362</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>4876</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>4891</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>8356</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>2071131</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>2433291</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>2441609</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>3263898</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>2401570</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>2823037</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>2730794</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>3508214</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>4472702</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>5256329</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>5172404</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>6772113</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2020001; 2127929</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2374322; 2489775</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>2387089; 2492301</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>3224246; 3309373</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>2348146; 2448706</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>2772284; 2869809</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2674960; 2783475</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>3479048; 3535562</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>4399546; 4548708</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>5183656; 5327193</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>5100246; 5252136</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>6722945; 6821331</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>